--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lytranbaominh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lytranbaominh/Documents/Lending_Club_Case_Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE453A8-09F8-374A-94E1-8C0EBAF347F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21890C8-1382-1C44-8319-669B514C28ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1820,9 +1820,9 @@
   </sheetPr>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="240" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -2790,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="400" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
